--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68EDA7-BF8F-3445-92AD-145402C6BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245DEF3-4143-AF40-ADB8-7560C7A27D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>

--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245DEF3-4143-AF40-ADB8-7560C7A27D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A00D9A-D67D-FA40-AD8A-426D828FDB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="element count" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Step</t>
   </si>
@@ -117,12 +118,48 @@
   <si>
     <t>Number of processors</t>
   </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>vasculature</t>
+  </si>
+  <si>
+    <t>airway/sinus</t>
+  </si>
+  <si>
+    <t>membrane</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>white matter</t>
+  </si>
+  <si>
+    <t>gray matter</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +188,11 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="CMR12"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,13 +230,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -208,6 +261,8 @@
     <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -1855,10 +1910,10 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="133" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1870,7 +1925,7 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1">
         <v>45427</v>
       </c>
@@ -1878,7 +1933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="I4" s="6">
         <f>I3*60</f>
         <v>14400</v>
@@ -1916,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="85">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="6">
         <v>500</v>
       </c>
@@ -1978,7 +2033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>5000</v>
       </c>
@@ -2016,7 +2071,7 @@
         <v>3429.48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="6">
         <v>10000</v>
       </c>
@@ -2054,7 +2109,7 @@
         <v>3791.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>15000</v>
       </c>
@@ -2092,7 +2147,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="6">
         <v>18600</v>
       </c>
@@ -2130,7 +2185,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2142,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="2">
         <f>B13/60</f>
         <v>382.03010279001467</v>
@@ -2151,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="2">
         <f>B14/60</f>
         <v>6.3671683798335774</v>
@@ -2160,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2171,7 +2226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2234,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2190,12 +2245,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="85">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>500</v>
       </c>
@@ -2265,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>5000</v>
       </c>
@@ -2303,7 +2358,7 @@
         <v>1510.69</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -2341,7 +2396,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>15000</v>
       </c>
@@ -2379,7 +2434,7 @@
         <v>1663.8999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>20000</v>
       </c>
@@ -2417,7 +2472,7 @@
         <v>1639.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>25000</v>
       </c>
@@ -2455,7 +2510,7 @@
         <v>1629.7000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>28356</v>
       </c>
@@ -2485,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2496,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2512,4 +2567,156 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FE679B-7CBB-374E-8B93-374D2AF219B3}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11">
+        <v>670293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
+        <v>21642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11">
+        <v>93465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11">
+        <v>21234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
+        <v>73172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11">
+        <v>504505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11">
+        <v>790102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11">
+        <v>554555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1900127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="C12" s="12">
+        <f>SUM(C2:C11)</f>
+        <v>4631316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A00D9A-D67D-FA40-AD8A-426D828FDB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3BBEC-8574-804B-8D40-50FBC11B3D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Step</t>
   </si>
@@ -154,12 +154,21 @@
   <si>
     <t>skin</t>
   </si>
+  <si>
+    <t>bob068.log</t>
+  </si>
+  <si>
+    <t>20 ms</t>
+  </si>
+  <si>
+    <t>bob069.log</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,8 +202,22 @@
       <color theme="1"/>
       <name val="CMR12"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,7 +276,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,6 +292,11 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -993,6 +1027,929 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> remaining to complete 20 ms simulation</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(with 10 ms prior sims for context)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11534995772478254"/>
+          <c:y val="0.25405232971575542"/>
+          <c:w val="0.83200423138249602"/>
+          <c:h val="0.53811379383424118"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>bob066b (10 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>371.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3801.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B88-9742-B31E-F764D71DF917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bob067 (10 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4967.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6607.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8237.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9317.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$30:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5940</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B88-9742-B31E-F764D71DF917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>bob068 20 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>186.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1839.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3510.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5228.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7006.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8773.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$44:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13080</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B88-9742-B31E-F764D71DF917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>bob069 (20 ms, 700 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>286.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2821.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5611.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$58:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1B88-9742-B31E-F764D71DF917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="4576863"/>
+        <c:axId val="187356207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4576863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187356207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3600"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187356207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> remaining to completion (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4576863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73576559369304628"/>
+          <c:y val="0.15917013010507999"/>
+          <c:w val="0.25312191682839702"/>
+          <c:h val="0.25934372052245336"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1033,7 +1990,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1587,7 +3100,151 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224852</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>282223</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B0DD94-B39E-5346-AF48-B761ADECF00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61265</cdr:x>
+      <cdr:y>0.18438</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72508</cdr:x>
+      <cdr:y>0.25269</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D9DA90-F1C8-CE6D-DC69-87CAC6FCAC7A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3434632" y="609476"/>
+          <a:ext cx="630294" cy="225777"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4 hr</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66886</cdr:x>
+      <cdr:y>0.25269</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66886</cdr:x>
+      <cdr:y>0.79058</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A86B062-8730-482C-4AB0-22B7D509FB88}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3749779" y="835253"/>
+          <a:ext cx="0" cy="1778001"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="127000">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1907,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C66FD6-99EC-654A-BA3D-603AAF2A3C22}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="133" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="135" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1934,9 +3591,6 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
@@ -1948,12 +3602,6 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="I3" s="6">
         <f>I2*60</f>
         <v>240</v>
@@ -1963,12 +3611,23 @@
       </c>
     </row>
     <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
       <c r="I4" s="6">
         <f>I3*60</f>
         <v>14400</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85">
@@ -2561,6 +4220,537 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="85">
+      <c r="A43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.7691000000000001E-4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>186.55</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="17">HOUR(E44)</f>
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="18">MINUTE(E44)</f>
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H53" si="19">F44*3600+G44*60</f>
+        <v>19620</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>5000</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.7691E-3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1839.8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F53" si="20">HOUR(E45)</f>
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G53" si="21">MINUTE(E45)</f>
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="19"/>
+        <v>18960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>10000</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.5368000000000001E-3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3510.3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="19"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>15000</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5.3026999999999996E-3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5228.7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="19"/>
+        <v>14340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>20000</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7.064E-3</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7006.7</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="19"/>
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>25000</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8.8199999999999997E-3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8773.5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="19"/>
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>30000</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1.0577E-2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10495</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="21"/>
+        <v>34</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="19"/>
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>35000</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.2326999999999999E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12271</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="19"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>40000</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.4078E-2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>14223</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="19"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>45000</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.5838000000000001E-2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>16226</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="19"/>
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="85">
+      <c r="A57" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>500</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.7691000000000001E-4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58" si="22">HOUR(E58)</f>
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58" si="23">MINUTE(E58)</f>
+        <v>36</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58" si="24">F58*3600+G58*60</f>
+        <v>30960</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>5000</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.7691E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2821.2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="25">HOUR(E59)</f>
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59" si="26">MINUTE(E59)</f>
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59" si="27">F59*3600+G59*60</f>
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>10000</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3.5368000000000001E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5611.9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60" si="28">HOUR(E60)</f>
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60" si="29">MINUTE(E60)</f>
+        <v>14</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60" si="30">F60*3600+G60*60</f>
+        <v>26040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>15000</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5.3026999999999996E-3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8406</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:F65" si="31">HOUR(E61)</f>
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G61:G65" si="32">MINUTE(E61)</f>
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:H65" si="33">F61*3600+G61*60</f>
+        <v>23280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>20000</v>
+      </c>
+      <c r="B62" s="2">
+        <v>7.064E-3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>11197</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="33"/>
+        <v>20520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>25000</v>
+      </c>
+      <c r="B63" s="2">
+        <v>8.8199999999999997E-3</v>
+      </c>
+      <c r="C63" s="2">
+        <v>14224</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.22361111111111112</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="32"/>
+        <v>22</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="33"/>
+        <v>19320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="E65" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3BBEC-8574-804B-8D40-50FBC11B3D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C13EA46-4098-9D4E-B2EC-A28067595EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>
@@ -1308,7 +1308,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>bob068 20 ms, 336 procs)</c:v>
+            <c:v>bob068 (20 ms, 336 procs)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3567,7 +3567,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E37" zoomScale="135" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4678,15 +4678,15 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61:F65" si="31">HOUR(E61)</f>
+        <f t="shared" ref="F61:F63" si="31">HOUR(E61)</f>
         <v>6</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:G65" si="32">MINUTE(E61)</f>
+        <f t="shared" ref="G61:G63" si="32">MINUTE(E61)</f>
         <v>28</v>
       </c>
       <c r="H61">
-        <f t="shared" ref="H61:H65" si="33">F61*3600+G61*60</f>
+        <f t="shared" ref="H61:H63" si="33">F61*3600+G61*60</f>
         <v>23280</v>
       </c>
     </row>

--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C13EA46-4098-9D4E-B2EC-A28067595EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7D15C-29D5-1247-A36A-CDFC367CF0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Step</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>bob069.log</t>
+  </si>
+  <si>
+    <t>nprocs</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1122,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11534995772478254"/>
           <c:y val="0.25405232971575542"/>
-          <c:w val="0.83200423138249602"/>
+          <c:w val="0.83805041011003878"/>
           <c:h val="0.53811379383424118"/>
         </c:manualLayout>
       </c:layout>
@@ -1143,9 +1146,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -1226,9 +1227,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -1318,7 +1317,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1378,10 +1377,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$44:$C$53</c:f>
+              <c:f>Sheet1!$C$45:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>186.55</c:v>
                 </c:pt>
@@ -1411,16 +1410,25 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$44:$H$53</c:f>
+              <c:f>Sheet1!$H$45:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>19620</c:v>
                 </c:pt>
@@ -1450,6 +1458,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4740</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,7 +1492,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1535,7 +1552,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$63</c:f>
+              <c:f>Sheet1!$C$63:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1562,7 +1579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$58:$H$63</c:f>
+              <c:f>Sheet1!$H$63:$H$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1728,6 +1745,7 @@
         <c:axId val="187356207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1868,10 +1886,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73576559369304628"/>
-          <c:y val="0.15917013010507999"/>
-          <c:w val="0.25312191682839702"/>
-          <c:h val="0.25934372052245336"/>
+          <c:x val="1.5570771022282225E-2"/>
+          <c:y val="0.90309732810817855"/>
+          <c:w val="0.96408797010715908"/>
+          <c:h val="8.19732782275501E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3103,15 +3121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>224852</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>124301</xdr:rowOff>
+      <xdr:colOff>264333</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>282223</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71338</xdr:rowOff>
+      <xdr:colOff>802797</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>32902</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3145,12 +3163,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.61265</cdr:x>
-      <cdr:y>0.18438</cdr:y>
+      <cdr:x>0.6329</cdr:x>
+      <cdr:y>0.18245</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.72508</cdr:x>
-      <cdr:y>0.25269</cdr:y>
+      <cdr:x>0.71258</cdr:x>
+      <cdr:y>0.25216</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3165,8 +3183,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3434632" y="609476"/>
-          <a:ext cx="630294" cy="225777"/>
+          <a:off x="3984890" y="692380"/>
+          <a:ext cx="501680" cy="264520"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3178,7 +3196,9 @@
         </a:solidFill>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
@@ -3192,12 +3212,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66886</cdr:x>
-      <cdr:y>0.25269</cdr:y>
+      <cdr:x>0.67274</cdr:x>
+      <cdr:y>0.25216</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66886</cdr:x>
-      <cdr:y>0.79058</cdr:y>
+      <cdr:x>0.67274</cdr:x>
+      <cdr:y>0.7933</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3213,9 +3233,9 @@
         </cdr:cNvCxnSpPr>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3749779" y="835253"/>
-          <a:ext cx="0" cy="1778001"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4235730" y="956900"/>
+          <a:ext cx="0" cy="2053577"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3223,6 +3243,176 @@
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="127000">
           <a:solidFill>
             <a:srgbClr val="FFFF00">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90977</cdr:x>
+      <cdr:y>0.18245</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98945</cdr:x>
+      <cdr:y>0.25216</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B38D039-42C3-0D75-C6D6-80042520F8A6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5728153" y="692380"/>
+          <a:ext cx="501681" cy="264520"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFC000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6 hr</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.95275</cdr:x>
+      <cdr:y>0.25216</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95275</cdr:x>
+      <cdr:y>0.7933</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BAE627-5497-BEC8-078C-B6D799AB069D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="5998733" y="956900"/>
+          <a:ext cx="1" cy="2053577"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFC000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="127000">
+          <a:solidFill>
+            <a:srgbClr val="FFC000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:solidFill>
@@ -3564,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C66FD6-99EC-654A-BA3D-603AAF2A3C22}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="135" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4254,146 +4444,136 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="1:10" ht="85">
+    <row r="43" spans="1:10">
       <c r="A43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B43" s="13">
+        <v>336</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="85">
+      <c r="A44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>500</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1.7691000000000001E-4</v>
-      </c>
-      <c r="C44" s="2">
-        <v>186.55</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.22708333333333333</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44" si="17">HOUR(E44)</f>
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ref="G44" si="18">MINUTE(E44)</f>
-        <v>27</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ref="H44:H53" si="19">F44*3600+G44*60</f>
-        <v>19620</v>
-      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.7691000000000001E-4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>186.55</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45" si="17">HOUR(E45)</f>
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45" si="18">MINUTE(E45)</f>
+        <v>27</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H57" si="19">F45*3600+G45*60</f>
+        <v>19620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
         <v>5000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2">
         <v>1.7691E-3</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>1839.8</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="3">
         <v>0.21944444444444444</v>
       </c>
-      <c r="F45">
-        <f t="shared" ref="F45:F53" si="20">HOUR(E45)</f>
+      <c r="F46">
+        <f t="shared" ref="F46:F57" si="20">HOUR(E46)</f>
         <v>5</v>
       </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G53" si="21">MINUTE(E45)</f>
+      <c r="G46">
+        <f t="shared" ref="G46:G57" si="21">MINUTE(E46)</f>
         <v>16</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <f t="shared" si="19"/>
         <v>18960</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
+    <row r="47" spans="1:10">
+      <c r="A47">
         <v>10000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>3.5368000000000001E-3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>3510.3</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="3">
         <v>0.18055555555555555</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <f t="shared" si="19"/>
         <v>15600</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <v>15000</v>
-      </c>
-      <c r="B47" s="2">
-        <v>5.3026999999999996E-3</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5228.7</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.16597222222222222</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="21"/>
-        <v>59</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="19"/>
-        <v>14340</v>
-      </c>
-    </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="B48" s="2">
-        <v>7.064E-3</v>
+        <v>5.3026999999999996E-3</v>
       </c>
       <c r="C48" s="2">
-        <v>7006.7</v>
+        <v>5228.7</v>
       </c>
       <c r="E48" s="3">
-        <v>0.15138888888888888</v>
+        <v>0.16597222222222222</v>
       </c>
       <c r="F48">
         <f t="shared" si="20"/>
@@ -4401,25 +4581,25 @@
       </c>
       <c r="G48">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H48">
         <f t="shared" si="19"/>
-        <v>13080</v>
+        <v>14340</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="B49" s="2">
-        <v>8.8199999999999997E-3</v>
+        <v>7.064E-3</v>
       </c>
       <c r="C49" s="2">
-        <v>8773.5</v>
+        <v>7006.7</v>
       </c>
       <c r="E49" s="3">
-        <v>0.13055555555555556</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="F49">
         <f t="shared" si="20"/>
@@ -4427,51 +4607,51 @@
       </c>
       <c r="G49">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <f t="shared" si="19"/>
-        <v>11280</v>
+        <v>13080</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="B50" s="2">
-        <v>1.0577E-2</v>
+        <v>8.8199999999999997E-3</v>
       </c>
       <c r="C50" s="2">
-        <v>10495</v>
+        <v>8773.5</v>
       </c>
       <c r="E50" s="3">
-        <v>0.10694444444444444</v>
+        <v>0.13055555555555556</v>
       </c>
       <c r="F50">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <f t="shared" si="19"/>
-        <v>9240</v>
+        <v>11280</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="B51" s="2">
-        <v>1.2326999999999999E-2</v>
+        <v>1.0577E-2</v>
       </c>
       <c r="C51" s="2">
-        <v>12271</v>
+        <v>10495</v>
       </c>
       <c r="E51" s="3">
-        <v>9.0277777777777776E-2</v>
+        <v>0.10694444444444444</v>
       </c>
       <c r="F51">
         <f t="shared" si="20"/>
@@ -4479,51 +4659,51 @@
       </c>
       <c r="G51">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <f t="shared" si="19"/>
-        <v>7800</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="B52" s="2">
-        <v>1.4078E-2</v>
+        <v>1.2326999999999999E-2</v>
       </c>
       <c r="C52" s="2">
-        <v>14223</v>
+        <v>12271</v>
       </c>
       <c r="E52" s="3">
-        <v>7.6388888888888895E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <f t="shared" si="19"/>
-        <v>6600</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="B53" s="2">
-        <v>1.5838000000000001E-2</v>
+        <v>1.4078E-2</v>
       </c>
       <c r="C53" s="2">
-        <v>16226</v>
+        <v>14223</v>
       </c>
       <c r="E53" s="3">
-        <v>5.486111111111111E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="20"/>
@@ -4531,226 +4711,344 @@
       </c>
       <c r="G53">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H53">
         <f t="shared" si="19"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>45000</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.5838000000000001E-2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>16226</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="19"/>
         <v>4740</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="15" t="s">
+      <c r="A55">
+        <v>50000</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.7603000000000001E-2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>18367</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="19"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55000</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.9370999999999999E-2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>20615</v>
+      </c>
+      <c r="E56" s="3">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="19"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56779</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C57" s="2">
+        <v>21413</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="13" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" ht="85">
-      <c r="A57" s="13" t="s">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="13">
+        <v>700</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" ht="85">
+      <c r="A62" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14" t="s">
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
+    <row r="63" spans="1:8">
+      <c r="A63">
         <v>500</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B63" s="2">
         <v>1.7691000000000001E-4</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C63" s="2">
         <v>286.60000000000002</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E63" s="3">
         <v>0.35833333333333334</v>
       </c>
-      <c r="F58">
-        <f t="shared" ref="F58" si="22">HOUR(E58)</f>
+      <c r="F63">
+        <f t="shared" ref="F63" si="22">HOUR(E63)</f>
         <v>8</v>
       </c>
-      <c r="G58">
-        <f t="shared" ref="G58" si="23">MINUTE(E58)</f>
+      <c r="G63">
+        <f t="shared" ref="G63" si="23">MINUTE(E63)</f>
         <v>36</v>
       </c>
-      <c r="H58">
-        <f t="shared" ref="H58" si="24">F58*3600+G58*60</f>
+      <c r="H63">
+        <f t="shared" ref="H63" si="24">F63*3600+G63*60</f>
         <v>30960</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
+    <row r="64" spans="1:8">
+      <c r="A64">
         <v>5000</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B64" s="2">
         <v>1.7691E-3</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C64" s="2">
         <v>2821.2</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E64" s="3">
         <v>0.33680555555555558</v>
       </c>
-      <c r="F59">
-        <f t="shared" ref="F59" si="25">HOUR(E59)</f>
+      <c r="F64">
+        <f t="shared" ref="F64" si="25">HOUR(E64)</f>
         <v>8</v>
       </c>
-      <c r="G59">
-        <f t="shared" ref="G59" si="26">MINUTE(E59)</f>
+      <c r="G64">
+        <f t="shared" ref="G64" si="26">MINUTE(E64)</f>
         <v>5</v>
       </c>
-      <c r="H59">
-        <f t="shared" ref="H59" si="27">F59*3600+G59*60</f>
+      <c r="H64">
+        <f t="shared" ref="H64" si="27">F64*3600+G64*60</f>
         <v>29100</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
+    <row r="65" spans="1:8">
+      <c r="A65">
         <v>10000</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B65" s="2">
         <v>3.5368000000000001E-3</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C65" s="2">
         <v>5611.9</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E65" s="3">
         <v>0.30138888888888887</v>
       </c>
-      <c r="F60">
-        <f t="shared" ref="F60" si="28">HOUR(E60)</f>
+      <c r="F65">
+        <f t="shared" ref="F65" si="28">HOUR(E65)</f>
         <v>7</v>
       </c>
-      <c r="G60">
-        <f t="shared" ref="G60" si="29">MINUTE(E60)</f>
+      <c r="G65">
+        <f t="shared" ref="G65" si="29">MINUTE(E65)</f>
         <v>14</v>
       </c>
-      <c r="H60">
-        <f t="shared" ref="H60" si="30">F60*3600+G60*60</f>
+      <c r="H65">
+        <f t="shared" ref="H65" si="30">F65*3600+G65*60</f>
         <v>26040</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
+    <row r="66" spans="1:8">
+      <c r="A66">
         <v>15000</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B66" s="2">
         <v>5.3026999999999996E-3</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C66" s="2">
         <v>8406</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E66" s="3">
         <v>0.26944444444444443</v>
       </c>
-      <c r="F61">
-        <f t="shared" ref="F61:F63" si="31">HOUR(E61)</f>
+      <c r="F66">
+        <f t="shared" ref="F66:F68" si="31">HOUR(E66)</f>
         <v>6</v>
       </c>
-      <c r="G61">
-        <f t="shared" ref="G61:G63" si="32">MINUTE(E61)</f>
+      <c r="G66">
+        <f t="shared" ref="G66:G68" si="32">MINUTE(E66)</f>
         <v>28</v>
       </c>
-      <c r="H61">
-        <f t="shared" ref="H61:H63" si="33">F61*3600+G61*60</f>
+      <c r="H66">
+        <f t="shared" ref="H66:H68" si="33">F66*3600+G66*60</f>
         <v>23280</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
+    <row r="67" spans="1:8">
+      <c r="A67">
         <v>20000</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B67" s="2">
         <v>7.064E-3</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C67" s="2">
         <v>11197</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E67" s="3">
         <v>0.23749999999999999</v>
       </c>
-      <c r="F62">
+      <c r="F67">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="G62">
+      <c r="G67">
         <f t="shared" si="32"/>
         <v>42</v>
       </c>
-      <c r="H62">
+      <c r="H67">
         <f t="shared" si="33"/>
         <v>20520</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
+    <row r="68" spans="1:8">
+      <c r="A68">
         <v>25000</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B68" s="2">
         <v>8.8199999999999997E-3</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C68" s="2">
         <v>14224</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E68" s="3">
         <v>0.22361111111111112</v>
       </c>
-      <c r="F63">
+      <c r="F68">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="G63">
+      <c r="G68">
         <f t="shared" si="32"/>
         <v>22</v>
       </c>
-      <c r="H63">
+      <c r="H68">
         <f t="shared" si="33"/>
         <v>19320</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="E65" s="3"/>
+    <row r="69" spans="1:8">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="E70" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7D15C-29D5-1247-A36A-CDFC367CF0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C572B-6A41-5D48-848F-71E554D58BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Step</t>
   </si>
@@ -166,6 +166,15 @@
   <si>
     <t>nprocs</t>
   </si>
+  <si>
+    <t>a001.log (skybridge)</t>
+  </si>
+  <si>
+    <t>sim duration</t>
+  </si>
+  <si>
+    <t>"grep Estimated a001.log"</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +288,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -300,6 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -1968,6 +1978,949 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> remaining to complete 20 ms simulation</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(with 10 ms prior sims for context)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11534995772478254"/>
+          <c:y val="0.25405232971575542"/>
+          <c:w val="0.83805041011003878"/>
+          <c:h val="0.53811379383424118"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>bob066b (10 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>371.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3801.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C78B-1640-B598-CA5C1BE0452B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bob067 (10 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4967.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6607.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8237.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9317.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$30:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5940</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C78B-1640-B598-CA5C1BE0452B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>bob068 (20 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>186.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1839.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3510.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5228.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7006.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8773.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$45:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>19620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13080</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4740</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C78B-1640-B598-CA5C1BE0452B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>bob069 (20 ms, 700 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$63:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>286.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2821.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5611.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$63:$H$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C78B-1640-B598-CA5C1BE0452B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>a001 (20 ms, 336 proc) skybridge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$74:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>110.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3131.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4177.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5224.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6271.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7309.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$74:$H$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C78B-1640-B598-CA5C1BE0452B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="4576863"/>
+        <c:axId val="187356207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4576863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187356207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3600"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187356207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> remaining to completion (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4576863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.5570771022282225E-2"/>
+          <c:y val="0.90309732810817855"/>
+          <c:w val="0.98442925305880891"/>
+          <c:h val="9.6902663789800572E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2048,6 +3001,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2565,6 +3558,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3156,10 +4665,326 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>538464</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10ACEDEE-ACC1-5C4C-AA2A-988C45709673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6329</cdr:x>
+      <cdr:y>0.18245</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71258</cdr:x>
+      <cdr:y>0.25216</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D9DA90-F1C8-CE6D-DC69-87CAC6FCAC7A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3984890" y="692380"/>
+          <a:ext cx="501680" cy="264520"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4 hr</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67274</cdr:x>
+      <cdr:y>0.25216</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67274</cdr:x>
+      <cdr:y>0.7933</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A86B062-8730-482C-4AB0-22B7D509FB88}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr>
+          <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2" idx="2"/>
+        </cdr:cNvCxnSpPr>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4235730" y="956900"/>
+          <a:ext cx="0" cy="2053577"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="127000">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90977</cdr:x>
+      <cdr:y>0.18245</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98945</cdr:x>
+      <cdr:y>0.25216</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B38D039-42C3-0D75-C6D6-80042520F8A6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5728153" y="692380"/>
+          <a:ext cx="501681" cy="264520"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFC000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6 hr</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.95275</cdr:x>
+      <cdr:y>0.25216</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95275</cdr:x>
+      <cdr:y>0.7933</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BAE627-5497-BEC8-078C-B6D799AB069D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="5998733" y="956900"/>
+          <a:ext cx="1" cy="2053577"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFC000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="127000">
+          <a:solidFill>
+            <a:srgbClr val="FFC000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3754,10 +5579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C66FD6-99EC-654A-BA3D-603AAF2A3C22}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5046,9 +6871,260 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="B70" s="2"/>
+      <c r="A70" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="85">
+      <c r="A73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>500</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.7691000000000001E-4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>110.04</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74" si="34">HOUR(E74)</f>
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74" si="35">MINUTE(E74)</f>
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ref="H74:H75" si="36">F74*3600+G74*60</f>
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>5000</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1.7691E-3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1050</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75" si="37">HOUR(E75)</f>
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75" si="38">MINUTE(E75)</f>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="36"/>
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>10000</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3.5382999999999999E-3</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2086</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.1125</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="39">HOUR(E76)</f>
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76" si="40">MINUTE(E76)</f>
+        <v>42</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76" si="41">F76*3600+G76*60</f>
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>15000</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5.3074000000000003E-3</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3131.6</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.10138888888888889</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:F81" si="42">HOUR(E77)</f>
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G81" si="43">MINUTE(E77)</f>
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ref="H77:H81" si="44">F77*3600+G77*60</f>
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>20000</v>
+      </c>
+      <c r="B78" s="2">
+        <v>7.0752000000000002E-3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4177.2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="44"/>
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>25000</v>
+      </c>
+      <c r="B79" s="2">
+        <v>8.8342000000000004E-3</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5224.7</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="43"/>
+        <v>52</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="44"/>
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>30000</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1.0574E-2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6271.4</v>
+      </c>
+      <c r="E80" s="3">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="43"/>
+        <v>35</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="44"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>35000</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1.2283000000000001E-2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>7309.8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="44"/>
+        <v>4740</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/simulaton_time_to_completion.xlsx
+++ b/analysis/simulaton_time_to_completion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chovey/autotwin/ssm/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C572B-6A41-5D48-848F-71E554D58BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E2E04-8EB8-954F-996B-91C15B9A856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{E9D10896-7065-F04D-85E8-226675EF176E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Step</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>"grep Estimated a001.log"</t>
   </si>
+  <si>
+    <t>a001.log (eclipse)</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +291,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,7 +312,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -2472,10 +2474,141 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>a001 (20 ms, 336 proc) skybridge</c:v>
+            <c:v>a001 (20 ms, 336 procs)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$94:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>96.131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>899.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1786.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2678.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3568.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4457.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5346.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6236.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8015.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9796.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$94:$H$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7380</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5704-AA42-A829-F32D3346672E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>a001_skybridge (20 ms, 336 procs)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2501,10 +2634,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$74:$C$81</c:f>
+              <c:f>Sheet1!$C$74:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>110.04</c:v>
                 </c:pt>
@@ -2528,16 +2661,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7309.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8354.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$74:$H$81</c:f>
+              <c:f>Sheet1!$H$74:$H$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>11700</c:v>
                 </c:pt>
@@ -2561,6 +2706,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,10 +2999,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.5570771022282225E-2"/>
-          <c:y val="0.90309732810817855"/>
-          <c:w val="0.98442925305880891"/>
-          <c:h val="9.6902663789800572E-2"/>
+          <c:x val="8.2103252242141142E-2"/>
+          <c:y val="0.89162197920556274"/>
+          <c:w val="0.84788966316907066"/>
+          <c:h val="9.6902684867112635E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4669,14 +4829,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>538464</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>144702</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>94342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5579,10 +5739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C66FD6-99EC-654A-BA3D-603AAF2A3C22}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="H64" zoomScale="175" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6892,8 +7052,8 @@
       <c r="A72" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="16">
-        <v>700</v>
+      <c r="B72">
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="85">
@@ -7010,15 +7170,15 @@
         <v>0.10138888888888889</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F81" si="42">HOUR(E77)</f>
+        <f t="shared" ref="F77:F86" si="42">HOUR(E77)</f>
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G81" si="43">MINUTE(E77)</f>
+        <f t="shared" ref="G77:G86" si="43">MINUTE(E77)</f>
         <v>26</v>
       </c>
       <c r="H77">
-        <f t="shared" ref="H77:H81" si="44">F77*3600+G77*60</f>
+        <f t="shared" ref="H77:H86" si="44">F77*3600+G77*60</f>
         <v>8760</v>
       </c>
     </row>
@@ -7124,6 +7284,520 @@
       <c r="H81">
         <f t="shared" si="44"/>
         <v>4740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>40000</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.3948E-2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>8354.2000000000007</v>
+      </c>
+      <c r="E82" s="3">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="44"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>45000</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.5594999999999999E-2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>9399</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="43"/>
+        <v>47</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="44"/>
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>50000</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.7262E-2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10444</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="43"/>
+        <v>28</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="44"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>55000</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.8964999999999999E-2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>11483</v>
+      </c>
+      <c r="E85" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="44"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>57995</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C86" s="2">
+        <v>12108</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="85">
+      <c r="A93" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>500</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1.7691000000000001E-4</v>
+      </c>
+      <c r="C94" s="2">
+        <v>96.131</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ref="F94" si="45">HOUR(E94)</f>
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ref="G94" si="46">MINUTE(E94)</f>
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ref="H94" si="47">F94*3600+G94*60</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>5000</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1.7691E-3</v>
+      </c>
+      <c r="C95" s="2">
+        <v>899.49</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.10625</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ref="F95" si="48">HOUR(E95)</f>
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ref="G95" si="49">MINUTE(E95)</f>
+        <v>33</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95" si="50">F95*3600+G95*60</f>
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>10000</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3.5382999999999999E-3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1786.6</v>
+      </c>
+      <c r="E96" s="3">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ref="F96" si="51">HOUR(E96)</f>
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ref="G96" si="52">MINUTE(E96)</f>
+        <v>17</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ref="H96" si="53">F96*3600+G96*60</f>
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>15000</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5.3074000000000003E-3</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2678.1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ref="F97:F106" si="54">HOUR(E97)</f>
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97:G106" si="55">MINUTE(E97)</f>
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ref="H97:H106" si="56">F97*3600+G97*60</f>
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>20000</v>
+      </c>
+      <c r="B98" s="2">
+        <v>7.0752000000000002E-3</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3568.9</v>
+      </c>
+      <c r="E98" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="55"/>
+        <v>48</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="56"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>25000</v>
+      </c>
+      <c r="B99" s="2">
+        <v>8.8342000000000004E-3</v>
+      </c>
+      <c r="C99" s="2">
+        <v>4457.3999999999996</v>
+      </c>
+      <c r="E99" s="3">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="55"/>
+        <v>34</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="56"/>
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>30000</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1.0574E-2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>5346.6</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="55"/>
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="56"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>35000</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1.2283000000000001E-2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6236.5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="56"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>40000</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1.3948E-2</v>
+      </c>
+      <c r="C102" s="2">
+        <v>7126</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="55"/>
+        <v>54</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="56"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>45000</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1.5594999999999999E-2</v>
+      </c>
+      <c r="C103" s="2">
+        <v>8015.7</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="55"/>
+        <v>39</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="56"/>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>50000</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1.7262E-2</v>
+      </c>
+      <c r="C104" s="2">
+        <v>8906</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="55"/>
+        <v>24</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="56"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>55000</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1.8964999999999999E-2</v>
+      </c>
+      <c r="C105" s="2">
+        <v>9796.1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="55"/>
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="56"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>57900</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1.9966999999999999E-2</v>
+      </c>
+      <c r="C106" s="2">
+        <v>10314</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
